--- a/Invoice Master.xlsx
+++ b/Invoice Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellrb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356244C-779D-7049-A290-4C29E1ADF332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3624D38-FFBF-FF4A-AB02-BC14A9FEA52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="51200" windowHeight="26460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BE5C5772-01BF-8348-B299-AC58E9DFFC3A}</author>
+    <author>tc={C4310B59-A606-8245-BACE-57110C07E16D}</author>
+    <author>tc={8B82E7AF-4FA2-7940-B97E-B849CE54D71C}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{BE5C5772-01BF-8348-B299-AC58E9DFFC3A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Replace text. Names must be in alphabetical order for formulas to function properly</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{C4310B59-A606-8245-BACE-57110C07E16D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Replace text. ID combines with date to create a unique invoice ID.</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{8B82E7AF-4FA2-7940-B97E-B849CE54D71C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Replace text.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9AD5E0F8-DC86-1A48-BDDC-CB5DC2A92C51}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9AD5E0F8-DC86-1A48-BDDC-CB5DC2A92C51}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Entries in this column must be in alphabetical order for formulas to function correctly.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -60,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t xml:space="preserve">Invoice </t>
   </si>
@@ -179,9 +233,6 @@
     <t>MagPix</t>
   </si>
   <si>
-    <t>Fee added to reagent cost</t>
-  </si>
-  <si>
     <t>Maxwell</t>
   </si>
   <si>
@@ -248,15 +299,6 @@
     <t>PI name</t>
   </si>
   <si>
-    <t>must be listed in alphabetical order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combined with the </t>
-  </si>
-  <si>
-    <t>date for the invoice number</t>
-  </si>
-  <si>
     <t>Address line 1</t>
   </si>
   <si>
@@ -272,7 +314,7 @@
     <t>Website:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique ID </t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -409,13 +451,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -466,6 +501,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -558,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,22 +642,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -625,27 +665,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -657,6 +692,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -675,6 +714,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +928,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Campbell, Regenia Beth Phillips" id="{447A2A12-19DE-524E-B64B-AD5E2CBA6F77}" userId="S::campbellrb@etsu.edu::ce6e65c0-5988-4cc1-b5af-362e38bb6347" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,6 +1221,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2022-03-22T16:54:09.07" personId="{447A2A12-19DE-524E-B64B-AD5E2CBA6F77}" id="{BE5C5772-01BF-8348-B299-AC58E9DFFC3A}">
+    <text>Replace text. Names must be in alphabetical order for formulas to function properly</text>
+  </threadedComment>
+  <threadedComment ref="B2" dT="2022-03-22T16:55:56.90" personId="{447A2A12-19DE-524E-B64B-AD5E2CBA6F77}" id="{C4310B59-A606-8245-BACE-57110C07E16D}">
+    <text>Replace text. ID combines with date to create a unique invoice ID.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2022-03-22T16:56:10.40" personId="{447A2A12-19DE-524E-B64B-AD5E2CBA6F77}" id="{8B82E7AF-4FA2-7940-B97E-B849CE54D71C}">
+    <text>Replace text.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-03-22T16:56:55.81" personId="{447A2A12-19DE-524E-B64B-AD5E2CBA6F77}" id="{9AD5E0F8-DC86-1A48-BDDC-CB5DC2A92C51}">
+    <text>Entries in this column must be in alphabetical order for formulas to function correctly.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
@@ -1182,8 +1250,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1193,58 +1261,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1257,125 +1325,125 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="54" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="str">
+      <c r="A15" s="70" t="str">
         <f>G19</f>
         <v>PI name</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="61" t="str">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="57" t="str">
         <f>_xlfn.CONCAT(TEXT(E17,"YYMM"),VLOOKUP(G19,Accounts!A:E,2))</f>
-        <v xml:space="preserve">2202Unique ID </v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+        <v>2202ID</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f>VLOOKUP(G19,Accounts!A:E,3)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="70">
+      <c r="A17" s="68">
         <f>VLOOKUP(G19,Accounts!A:E,4)</f>
         <v>0</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="61">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="57">
         <v>44620</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1387,7 +1455,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,13 +1468,13 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -1415,10 +1483,10 @@
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="22" t="s">
         <v>9</v>
       </c>
@@ -1431,297 +1499,297 @@
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="str" cm="1">
-        <f t="array" ref="A23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A1)),COLUMNS($A$1:A1)),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="19" t="str">
-        <f t="array" ref="B23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:B1)),COLUMNS($A$1:B1)),"")</f>
+        <f t="array" ref="A23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A1)),COLUMNS($A$1:A1)),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="19" t="str" cm="1">
+        <f t="array" ref="B23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B1)),COLUMNS($A$1:B1)),"")</f>
         <v/>
       </c>
       <c r="C23" s="19" t="str" cm="1">
-        <f t="array" ref="C23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:C1)),COLUMNS($A$1:C1)),"")</f>
+        <f t="array" ref="C23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C1)),COLUMNS($A$1:C1)),"")</f>
         <v/>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="19" t="str" cm="1">
-        <f t="array" ref="E23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D1)),COLUMNS($A$1:D1)),"")</f>
+        <f t="array" ref="E23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D1)),COLUMNS($A$1:D1)),"")</f>
         <v/>
       </c>
       <c r="F23" s="24" t="str" cm="1">
-        <f t="array" ref="F23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:E1)),COLUMNS($A$1:E1)),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="26" t="str">
+        <f t="array" ref="F23">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E1)),COLUMNS($A$1:E1)),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="25" t="str">
         <f>IF(ISNUMBER(E23),E23*F23, "")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="str" cm="1">
-        <f t="array" ref="A24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A2)),COLUMNS($A$1:A2)),"")</f>
         <v/>
       </c>
       <c r="B24" s="19" t="str" cm="1">
-        <f t="array" ref="B24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C24" s="19" t="str">
-        <f t="array" ref="C24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B2)),COLUMNS($A$1:B2)),"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="19" t="str" cm="1">
+        <f t="array" ref="C24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C2)),COLUMNS($A$1:C2)),"")</f>
         <v/>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="19" t="str" cm="1">
-        <f t="array" ref="E24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="25" t="str">
-        <f t="array" ref="F24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G24" s="26" t="str">
+        <f t="array" ref="E24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D2)),COLUMNS($A$1:D2)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str" cm="1">
+        <f t="array" ref="F24">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E2)),COLUMNS($A$1:E2)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="25" t="str">
         <f t="shared" ref="G24:G33" si="0">IF(ISNUMBER(E24),E24*F24, "")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="str" cm="1">
-        <f t="array" ref="A25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A3)),COLUMNS($A$1:A3)),"")</f>
         <v/>
       </c>
       <c r="B25" s="19" t="str" cm="1">
-        <f t="array" ref="B25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C25" s="19" t="str">
-        <f t="array" ref="C25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B3)),COLUMNS($A$1:B3)),"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="19" t="str" cm="1">
+        <f t="array" ref="C25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C3)),COLUMNS($A$1:C3)),"")</f>
         <v/>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="19" t="str" cm="1">
-        <f t="array" ref="E25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="25" t="str">
-        <f t="array" ref="F25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="26" t="str">
+        <f t="array" ref="E25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D3)),COLUMNS($A$1:D3)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str" cm="1">
+        <f t="array" ref="F25">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E3)),COLUMNS($A$1:E3)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="str" cm="1">
-        <f t="array" ref="A26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A4)),COLUMNS($A$1:A4)),"")</f>
         <v/>
       </c>
       <c r="B26" s="19" t="str" cm="1">
-        <f t="array" ref="B26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C26" s="19" t="str">
-        <f t="array" ref="C26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B4)),COLUMNS($A$1:B4)),"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="19" t="str" cm="1">
+        <f t="array" ref="C26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C4)),COLUMNS($A$1:C4)),"")</f>
         <v/>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="19" t="str" cm="1">
-        <f t="array" ref="E26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="25" t="str">
-        <f t="array" ref="F26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="26" t="str">
+        <f t="array" ref="E26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D4)),COLUMNS($A$1:D4)),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str" cm="1">
+        <f t="array" ref="F26">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E4)),COLUMNS($A$1:E4)),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="str" cm="1">
-        <f t="array" ref="A27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A5)),COLUMNS($A$1:A5)),"")</f>
         <v/>
       </c>
       <c r="B27" s="19" t="str" cm="1">
-        <f t="array" ref="B27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C27" s="19" t="str">
-        <f t="array" ref="C27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B5)),COLUMNS($A$1:B5)),"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="19" t="str" cm="1">
+        <f t="array" ref="C27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C5)),COLUMNS($A$1:C5)),"")</f>
         <v/>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="str" cm="1">
-        <f t="array" ref="E27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="25" t="str">
-        <f t="array" ref="F27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="26" t="str">
+        <f t="array" ref="E27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D5)),COLUMNS($A$1:D5)),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str" cm="1">
+        <f t="array" ref="F27">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E5)),COLUMNS($A$1:E5)),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="str" cm="1">
-        <f t="array" ref="A28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A6)),COLUMNS($A$1:A6)),"")</f>
         <v/>
       </c>
       <c r="B28" s="19" t="str" cm="1">
-        <f t="array" ref="B28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="19" t="str">
-        <f t="array" ref="C28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B6)),COLUMNS($A$1:B6)),"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="19" t="str" cm="1">
+        <f t="array" ref="C28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C6)),COLUMNS($A$1:C6)),"")</f>
         <v/>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="19" t="str" cm="1">
-        <f t="array" ref="E28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="25" t="str">
-        <f t="array" ref="F28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="26" t="str">
+        <f t="array" ref="E28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D6)),COLUMNS($A$1:D6)),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str" cm="1">
+        <f t="array" ref="F28">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E6)),COLUMNS($A$1:E6)),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="str" cm="1">
-        <f t="array" ref="A29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A22)),COLUMNS($A$1:A22)),"")</f>
+        <f t="array" ref="A29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A7)),COLUMNS($A$1:A7)),"")</f>
         <v/>
       </c>
       <c r="B29" s="19" t="str" cm="1">
-        <f t="array" ref="B29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B22)),COLUMNS($A$1:B22)),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="19" t="str">
-        <f t="array" ref="C29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:C24)),COLUMNS($A$1:C24)),"")</f>
+        <f t="array" ref="B29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B7)),COLUMNS($A$1:B7)),"")</f>
+        <v/>
+      </c>
+      <c r="C29" s="19" t="str" cm="1">
+        <f t="array" ref="C29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C7)),COLUMNS($A$1:C7)),"")</f>
         <v/>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="19" t="str" cm="1">
-        <f t="array" ref="E29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D22)),COLUMNS($A$1:D22)),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="25" t="str">
-        <f t="array" ref="F29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:E24)),COLUMNS($A$1:E24)),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="26" t="str">
+        <f t="array" ref="E29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D7)),COLUMNS($A$1:D7)),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str" cm="1">
+        <f t="array" ref="F29">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E7)),COLUMNS($A$1:E7)),"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="str" cm="1">
-        <f t="array" ref="A30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A26)),COLUMNS($A$1:A26)),"")</f>
+        <f t="array" ref="A30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A8)),COLUMNS($A$1:A8)),"")</f>
         <v/>
       </c>
       <c r="B30" s="19" t="str" cm="1">
-        <f t="array" ref="B30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B26)),COLUMNS($A$1:B26)),"")</f>
+        <f t="array" ref="B30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B8)),COLUMNS($A$1:B8)),"")</f>
         <v/>
       </c>
       <c r="C30" s="19" t="str" cm="1">
-        <f t="array" ref="C30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:C26)),COLUMNS($A$1:C26)),"")</f>
+        <f t="array" ref="C30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C8)),COLUMNS($A$1:C8)),"")</f>
         <v/>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="19" t="str" cm="1">
-        <f t="array" ref="E30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D26)),COLUMNS($A$1:D26)),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="25" t="str" cm="1">
-        <f t="array" ref="F30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:E26)),COLUMNS($A$1:E26)),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="26" t="str">
+        <f t="array" ref="E30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D8)),COLUMNS($A$1:D8)),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str" cm="1">
+        <f t="array" ref="F30">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E8)),COLUMNS($A$1:E8)),"")</f>
+        <v/>
+      </c>
+      <c r="G30" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="str" cm="1">
-        <f t="array" ref="A31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A26)),COLUMNS($A$1:A26)),"")</f>
+        <f t="array" ref="A31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A9)),COLUMNS($A$1:A9)),"")</f>
         <v/>
       </c>
       <c r="B31" s="19" t="str" cm="1">
-        <f t="array" ref="B31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B26)),COLUMNS($A$1:B26)),"")</f>
+        <f t="array" ref="B31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B9)),COLUMNS($A$1:B9)),"")</f>
         <v/>
       </c>
       <c r="C31" s="19" t="str" cm="1">
-        <f t="array" ref="C31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:C26)),COLUMNS($A$1:C26)),"")</f>
+        <f t="array" ref="C31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C9)),COLUMNS($A$1:C9)),"")</f>
         <v/>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="19" t="str">
-        <f t="array" ref="E31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$24,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$24),MATCH(ROW('Bookings and Orders'!$A$2:$E$24),ROW('Bookings and Orders'!$A$2:$E$24))),ROWS($A$1:D26)),COLUMNS($A$1:D26)),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="25" t="str" cm="1">
-        <f t="array" ref="F31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:E26)),COLUMNS($A$1:E26)),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="26" t="str">
+      <c r="E31" s="19" t="str" cm="1">
+        <f t="array" ref="E31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D9)),COLUMNS($A$1:D9)),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str" cm="1">
+        <f t="array" ref="F31">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E9)),COLUMNS($A$1:E9)),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="str" cm="1">
-        <f t="array" ref="A32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A26)),COLUMNS($A$1:A26)),"")</f>
+        <f t="array" ref="A32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A10)),COLUMNS($A$1:A10)),"")</f>
         <v/>
       </c>
       <c r="B32" s="19" t="str" cm="1">
-        <f t="array" ref="B32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B26)),COLUMNS($A$1:B26)),"")</f>
+        <f t="array" ref="B32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B10)),COLUMNS($A$1:B10)),"")</f>
         <v/>
       </c>
       <c r="C32" s="19" t="str" cm="1">
-        <f t="array" ref="C32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:C26)),COLUMNS($A$1:C26)),"")</f>
+        <f t="array" ref="C32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C10)),COLUMNS($A$1:C10)),"")</f>
         <v/>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="19" t="str" cm="1">
-        <f t="array" ref="E32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D26)),COLUMNS($A$1:D26)),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="25" t="str" cm="1">
-        <f t="array" ref="F32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:E26)),COLUMNS($A$1:E26)),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="26" t="str">
+        <f t="array" ref="E32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D10)),COLUMNS($A$1:D10)),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str" cm="1">
+        <f t="array" ref="F32">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E10)),COLUMNS($A$1:E10)),"")</f>
+        <v/>
+      </c>
+      <c r="G32" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="str" cm="1">
-        <f t="array" ref="A33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:A26)),COLUMNS($A$1:A26)),"")</f>
+        <f t="array" ref="A33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:A11)),COLUMNS($A$1:A11)),"")</f>
         <v/>
       </c>
       <c r="B33" s="19" t="str" cm="1">
-        <f t="array" ref="B33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:B26)),COLUMNS($A$1:B26)),"")</f>
+        <f t="array" ref="B33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:B11)),COLUMNS($A$1:B11)),"")</f>
         <v/>
       </c>
       <c r="C33" s="19" t="str" cm="1">
-        <f t="array" ref="C33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:C26)),COLUMNS($A$1:C26)),"")</f>
+        <f t="array" ref="C33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:C11)),COLUMNS($A$1:C11)),"")</f>
         <v/>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="19" t="str" cm="1">
-        <f t="array" ref="E33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:D26)),COLUMNS($A$1:D26)),"")</f>
-        <v/>
-      </c>
-      <c r="F33" s="25" t="str" cm="1">
-        <f t="array" ref="F33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$13,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$13),MATCH(ROW('Bookings and Orders'!$A$2:$E$13),ROW('Bookings and Orders'!$A$2:$E$13))),ROWS($A$1:E26)),COLUMNS($A$1:E26)),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="26" t="str">
+        <f t="array" ref="E33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:D11)),COLUMNS($A$1:D11)),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str" cm="1">
+        <f t="array" ref="F33">IFERROR(INDEX('Bookings and Orders'!$A$2:$E$2000,SMALL(IF(COUNTIF(Master!$G$19, 'Bookings and Orders'!$F$2:$F$2000),MATCH(ROW('Bookings and Orders'!$A$2:$E$2000),ROW('Bookings and Orders'!$A$2:$E$2000))),ROWS($A$1:E11)),COLUMNS($A$1:E11)),"")</f>
+        <v/>
+      </c>
+      <c r="G33" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1732,26 +1800,26 @@
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="E35" s="57">
+      <c r="E35" s="53">
         <f>SUM(G23:G33)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
@@ -1772,8 +1840,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="E14:G14"/>
@@ -1792,13 +1858,15 @@
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Accounts!$A$2:$A$22</xm:f>
@@ -1812,14 +1880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1850,26 +1918,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,199 +1942,198 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="36"/>
+    <col min="3" max="3" width="8.83203125" style="35"/>
     <col min="4" max="4" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="B10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="B13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
@@ -2087,6 +2141,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2097,244 +2152,244 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="27"/>
-    <col min="5" max="5" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.83203125" style="27"/>
-    <col min="16" max="16" width="11.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="27"/>
+    <col min="1" max="1" width="28.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="26"/>
+    <col min="5" max="5" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.83203125" style="26"/>
+    <col min="16" max="16" width="11.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+    </row>
+    <row r="2" spans="1:8" s="48" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
         <v>36892</v>
       </c>
-      <c r="C2" s="50" t="e">
+      <c r="C2" s="49" t="e">
         <f>VLOOKUP(G2,'Price Master'!A:C,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="e">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51" t="e">
         <f>VLOOKUP('Bookings and Orders'!G2,'Price Master'!A:C,3)</f>
         <v>#N/A</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="F2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="31"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C5" s="28"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="31"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C6" s="28"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="35"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,6 +2401,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D85E9551589EC4E91F8D263A644F406" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a1575cbb3c62cad6bb5cd8f014535cf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="efb81ab8-4af9-4d71-acb5-a2370c170c43" xmlns:ns4="9e34d514-1fb5-42e5-8f02-3d7a25e3f5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47a498cce006eb2b79a951d6006ea508" ns3:_="" ns4:_="">
     <xsd:import namespace="efb81ab8-4af9-4d71-acb5-a2370c170c43"/>
@@ -2542,7 +2603,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2551,13 +2612,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52637AD-A82C-4D5B-AE1D-E4B31D2A49C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA81DBF-A799-4918-B833-8D4190E64CA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2576,19 +2640,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D8958B7-C305-450B-B5D4-AAA0CAB799DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52637AD-A82C-4D5B-AE1D-E4B31D2A49C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>